--- a/relatorios/repasses_liberados/dentistas/43280650410/2023-08-25_relatorio_repasses_43280650410.xlsx
+++ b/relatorios/repasses_liberados/dentistas/43280650410/2023-08-25_relatorio_repasses_43280650410.xlsx
@@ -43527,7 +43527,7 @@
         <v>0</v>
       </c>
       <c r="M933">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N933">
         <v>0</v>
@@ -43659,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43747,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -45111,7 +45111,7 @@
         <v>0</v>
       </c>
       <c r="M969">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N969">
         <v>0</v>
@@ -45331,7 +45331,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -45419,7 +45419,7 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N976">
         <v>0</v>
@@ -45639,7 +45639,7 @@
         <v>0</v>
       </c>
       <c r="M981">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N981">
         <v>0</v>
@@ -46475,7 +46475,7 @@
         <v>0</v>
       </c>
       <c r="M1000">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1000">
         <v>0</v>
@@ -46607,7 +46607,7 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1003">
         <v>0</v>
@@ -47619,7 +47619,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47663,7 +47663,7 @@
         <v>0</v>
       </c>
       <c r="M1027">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1027">
         <v>0</v>
@@ -49203,7 +49203,7 @@
         <v>0</v>
       </c>
       <c r="M1062">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1062">
         <v>0</v>
@@ -49335,7 +49335,7 @@
         <v>0</v>
       </c>
       <c r="M1065">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1065">
         <v>0</v>
@@ -49467,7 +49467,7 @@
         <v>0</v>
       </c>
       <c r="M1068">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1068">
         <v>0</v>
@@ -49511,7 +49511,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49951,7 +49951,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -50127,7 +50127,7 @@
         <v>0</v>
       </c>
       <c r="M1083">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1083">
         <v>0</v>
@@ -50567,7 +50567,7 @@
         <v>0</v>
       </c>
       <c r="M1093">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1093">
         <v>0</v>
@@ -50655,7 +50655,7 @@
         <v>0</v>
       </c>
       <c r="M1095">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1095">
         <v>0</v>
@@ -51051,7 +51051,7 @@
         <v>0</v>
       </c>
       <c r="M1104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1104">
         <v>0</v>
@@ -52283,7 +52283,7 @@
         <v>0</v>
       </c>
       <c r="M1132">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1132">
         <v>0</v>
@@ -52371,7 +52371,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -52767,7 +52767,7 @@
         <v>0</v>
       </c>
       <c r="M1143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1143">
         <v>0</v>
@@ -52855,7 +52855,7 @@
         <v>0</v>
       </c>
       <c r="M1145">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1145">
         <v>0</v>
@@ -53251,7 +53251,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -53295,7 +53295,7 @@
         <v>0</v>
       </c>
       <c r="M1155">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1155">
         <v>0</v>
@@ -53515,7 +53515,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -53559,7 +53559,7 @@
         <v>0</v>
       </c>
       <c r="M1161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1161">
         <v>0</v>
@@ -55539,7 +55539,7 @@
         <v>0</v>
       </c>
       <c r="M1206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1206">
         <v>0</v>
@@ -55583,7 +55583,7 @@
         <v>0</v>
       </c>
       <c r="M1207">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1207">
         <v>0</v>
@@ -56199,7 +56199,7 @@
         <v>0</v>
       </c>
       <c r="M1221">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1221">
         <v>0</v>
@@ -56243,7 +56243,7 @@
         <v>0</v>
       </c>
       <c r="M1222">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1222">
         <v>0</v>
@@ -56287,7 +56287,7 @@
         <v>0</v>
       </c>
       <c r="M1223">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1223">
         <v>0</v>
@@ -56727,10 +56727,10 @@
         <v>0.08680599999999999</v>
       </c>
       <c r="M1233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1233">
-        <v>1.73612</v>
+        <v>1.30209</v>
       </c>
     </row>
     <row r="1234" spans="1:14">
@@ -56771,10 +56771,10 @@
         <v>0.357639</v>
       </c>
       <c r="M1234">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1234">
-        <v>65</v>
+        <v>29.4694536</v>
       </c>
     </row>
     <row r="1235" spans="1:14">
@@ -56859,10 +56859,10 @@
         <v>0.277778</v>
       </c>
       <c r="M1236">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1236">
-        <v>13.333344</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1237" spans="1:14">
@@ -56947,7 +56947,7 @@
         <v>0</v>
       </c>
       <c r="M1238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1238">
         <v>0</v>
@@ -56991,7 +56991,7 @@
         <v>0</v>
       </c>
       <c r="M1239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1239">
         <v>0</v>
@@ -57255,7 +57255,7 @@
         <v>0</v>
       </c>
       <c r="M1245">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1245">
         <v>0</v>
@@ -57299,7 +57299,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -59631,7 +59631,7 @@
         <v>0</v>
       </c>
       <c r="M1299">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1299">
         <v>0</v>
@@ -59675,7 +59675,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59807,7 +59807,7 @@
         <v>0</v>
       </c>
       <c r="M1303">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1303">
         <v>0</v>
@@ -60379,7 +60379,7 @@
         <v>0</v>
       </c>
       <c r="M1316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1316">
         <v>0</v>
@@ -60423,7 +60423,7 @@
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1317">
         <v>0</v>
@@ -60511,7 +60511,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1319">
         <v>0</v>
@@ -60599,7 +60599,7 @@
         <v>0</v>
       </c>
       <c r="M1321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1321">
         <v>0</v>
@@ -61083,7 +61083,7 @@
         <v>0</v>
       </c>
       <c r="M1332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1332">
         <v>0</v>
@@ -61171,7 +61171,7 @@
         <v>0</v>
       </c>
       <c r="M1334">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1334">
         <v>0</v>
@@ -61347,7 +61347,7 @@
         <v>0</v>
       </c>
       <c r="M1338">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1338">
         <v>0</v>
@@ -61391,7 +61391,7 @@
         <v>0</v>
       </c>
       <c r="M1339">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1339">
         <v>0</v>
@@ -61479,7 +61479,7 @@
         <v>0</v>
       </c>
       <c r="M1341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1341">
         <v>0</v>
@@ -61567,7 +61567,7 @@
         <v>0</v>
       </c>
       <c r="M1343">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1343">
         <v>0</v>
@@ -61743,7 +61743,7 @@
         <v>0</v>
       </c>
       <c r="M1347">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1347">
         <v>0</v>
@@ -61831,7 +61831,7 @@
         <v>0</v>
       </c>
       <c r="M1349">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1349">
         <v>0</v>
@@ -63723,7 +63723,7 @@
         <v>0</v>
       </c>
       <c r="M1392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1392">
         <v>0</v>
@@ -63767,7 +63767,7 @@
         <v>0</v>
       </c>
       <c r="M1393">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1393">
         <v>0</v>
@@ -64207,7 +64207,7 @@
         <v>0</v>
       </c>
       <c r="M1403">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1403">
         <v>0</v>
@@ -64251,7 +64251,7 @@
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N1404">
         <v>0</v>
@@ -64691,7 +64691,7 @@
         <v>0</v>
       </c>
       <c r="M1414">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1414">
         <v>0</v>
@@ -64735,7 +64735,7 @@
         <v>0</v>
       </c>
       <c r="M1415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1415">
         <v>0</v>
@@ -64867,7 +64867,7 @@
         <v>0</v>
       </c>
       <c r="M1418">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1418">
         <v>0</v>
@@ -65087,7 +65087,7 @@
         <v>0</v>
       </c>
       <c r="M1423">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1423">
         <v>0</v>
@@ -66803,7 +66803,7 @@
         <v>0</v>
       </c>
       <c r="M1462">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1462">
         <v>0</v>
@@ -66847,7 +66847,7 @@
         <v>0</v>
       </c>
       <c r="M1463">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1463">
         <v>0</v>
@@ -68607,7 +68607,7 @@
         <v>0</v>
       </c>
       <c r="M1503">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1503">
         <v>0</v>
@@ -68695,7 +68695,7 @@
         <v>0</v>
       </c>
       <c r="M1505">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1505">
         <v>0</v>
@@ -68871,7 +68871,7 @@
         <v>0</v>
       </c>
       <c r="M1509">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N1509">
         <v>0</v>
@@ -68915,7 +68915,7 @@
         <v>0</v>
       </c>
       <c r="M1510">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1510">
         <v>0</v>
@@ -68959,7 +68959,7 @@
         <v>0</v>
       </c>
       <c r="M1511">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1511">
         <v>0</v>
@@ -69267,7 +69267,7 @@
         <v>0</v>
       </c>
       <c r="M1518">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1518">
         <v>0</v>
@@ -69311,7 +69311,7 @@
         <v>0</v>
       </c>
       <c r="M1519">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1519">
         <v>0</v>
@@ -69355,7 +69355,7 @@
         <v>0</v>
       </c>
       <c r="M1520">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1520">
         <v>0</v>
@@ -69399,7 +69399,7 @@
         <v>0</v>
       </c>
       <c r="M1521">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1521">
         <v>0</v>
@@ -70279,7 +70279,7 @@
         <v>0</v>
       </c>
       <c r="M1541">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1541">
         <v>0</v>
@@ -70367,7 +70367,7 @@
         <v>0</v>
       </c>
       <c r="M1543">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1543">
         <v>0</v>
@@ -70411,7 +70411,7 @@
         <v>0</v>
       </c>
       <c r="M1544">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1544">
         <v>0</v>
@@ -70455,7 +70455,7 @@
         <v>0</v>
       </c>
       <c r="M1545">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1545">
         <v>0</v>
@@ -70499,7 +70499,7 @@
         <v>0</v>
       </c>
       <c r="M1546">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1546">
         <v>0</v>
@@ -70587,7 +70587,7 @@
         <v>0</v>
       </c>
       <c r="M1548">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1548">
         <v>0</v>
@@ -74855,7 +74855,7 @@
         <v>0</v>
       </c>
       <c r="M1645">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1645">
         <v>0</v>
@@ -75515,7 +75515,7 @@
         <v>0</v>
       </c>
       <c r="M1660">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1660">
         <v>0</v>
@@ -75603,7 +75603,7 @@
         <v>0</v>
       </c>
       <c r="M1662">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1662">
         <v>0</v>
@@ -75911,7 +75911,7 @@
         <v>0</v>
       </c>
       <c r="M1669">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1669">
         <v>0</v>
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="M1672">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1672">
         <v>0</v>
@@ -76087,7 +76087,7 @@
         <v>0</v>
       </c>
       <c r="M1673">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1673">
         <v>0</v>
@@ -76571,7 +76571,7 @@
         <v>0</v>
       </c>
       <c r="M1684">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1684">
         <v>0</v>
@@ -77011,7 +77011,7 @@
         <v>0</v>
       </c>
       <c r="M1694">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1694">
         <v>0</v>
@@ -77451,7 +77451,7 @@
         <v>0</v>
       </c>
       <c r="M1704">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1704">
         <v>0</v>
@@ -77495,7 +77495,7 @@
         <v>0</v>
       </c>
       <c r="M1705">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1705">
         <v>0</v>
@@ -77583,7 +77583,7 @@
         <v>0</v>
       </c>
       <c r="M1707">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1707">
         <v>0</v>
@@ -77671,7 +77671,7 @@
         <v>0</v>
       </c>
       <c r="M1709">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1709">
         <v>0</v>
@@ -78375,7 +78375,7 @@
         <v>0</v>
       </c>
       <c r="M1725">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1725">
         <v>0</v>
@@ -78551,7 +78551,7 @@
         <v>0</v>
       </c>
       <c r="M1729">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1729">
         <v>0</v>
@@ -78595,7 +78595,7 @@
         <v>0</v>
       </c>
       <c r="M1730">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1730">
         <v>0</v>
@@ -79167,7 +79167,7 @@
         <v>0</v>
       </c>
       <c r="M1743">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1743">
         <v>0</v>
@@ -79211,7 +79211,7 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1744">
         <v>0</v>
@@ -79475,7 +79475,7 @@
         <v>0</v>
       </c>
       <c r="M1750">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1750">
         <v>0</v>
@@ -79695,7 +79695,7 @@
         <v>0</v>
       </c>
       <c r="M1755">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1755">
         <v>0</v>
@@ -80531,7 +80531,7 @@
         <v>0</v>
       </c>
       <c r="M1774">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1774">
         <v>0</v>
@@ -81103,7 +81103,7 @@
         <v>0</v>
       </c>
       <c r="M1787">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N1787">
         <v>0</v>
@@ -81807,7 +81807,7 @@
         <v>0</v>
       </c>
       <c r="M1803">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1803">
         <v>0</v>
@@ -81895,7 +81895,7 @@
         <v>0</v>
       </c>
       <c r="M1805">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1805">
         <v>0</v>
@@ -82071,7 +82071,7 @@
         <v>0</v>
       </c>
       <c r="M1809">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1809">
         <v>0</v>
@@ -82159,7 +82159,7 @@
         <v>0</v>
       </c>
       <c r="M1811">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1811">
         <v>0</v>
@@ -82247,7 +82247,7 @@
         <v>0</v>
       </c>
       <c r="M1813">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1813">
         <v>0</v>
@@ -82379,7 +82379,7 @@
         <v>0</v>
       </c>
       <c r="M1816">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1816">
         <v>0</v>
@@ -82423,7 +82423,7 @@
         <v>0</v>
       </c>
       <c r="M1817">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1817">
         <v>0</v>
@@ -82599,7 +82599,7 @@
         <v>0</v>
       </c>
       <c r="M1821">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1821">
         <v>0</v>
@@ -82687,7 +82687,7 @@
         <v>0</v>
       </c>
       <c r="M1823">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1823">
         <v>0</v>
@@ -83127,7 +83127,7 @@
         <v>0</v>
       </c>
       <c r="M1833">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1833">
         <v>0</v>
@@ -83171,7 +83171,7 @@
         <v>0</v>
       </c>
       <c r="M1834">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N1834">
         <v>0</v>
@@ -83215,7 +83215,7 @@
         <v>0</v>
       </c>
       <c r="M1835">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1835">
         <v>0</v>
@@ -84139,7 +84139,7 @@
         <v>0</v>
       </c>
       <c r="M1856">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1856">
         <v>0</v>
@@ -84183,7 +84183,7 @@
         <v>0</v>
       </c>
       <c r="M1857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1857">
         <v>0</v>
@@ -84271,7 +84271,7 @@
         <v>0</v>
       </c>
       <c r="M1859">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1859">
         <v>0</v>
@@ -84447,7 +84447,7 @@
         <v>0</v>
       </c>
       <c r="M1863">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1863">
         <v>0</v>
@@ -84491,7 +84491,7 @@
         <v>0</v>
       </c>
       <c r="M1864">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1864">
         <v>0</v>
@@ -84535,7 +84535,7 @@
         <v>0</v>
       </c>
       <c r="M1865">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1865">
         <v>0</v>
@@ -84579,7 +84579,7 @@
         <v>0</v>
       </c>
       <c r="M1866">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1866">
         <v>0</v>
@@ -84623,7 +84623,7 @@
         <v>0</v>
       </c>
       <c r="M1867">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1867">
         <v>0</v>
@@ -85855,7 +85855,7 @@
         <v>0</v>
       </c>
       <c r="M1895">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1895">
         <v>0</v>
@@ -85899,7 +85899,7 @@
         <v>0</v>
       </c>
       <c r="M1896">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1896">
         <v>0</v>
@@ -88055,7 +88055,7 @@
         <v>0</v>
       </c>
       <c r="M1945">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1945">
         <v>0</v>
@@ -88275,7 +88275,7 @@
         <v>0</v>
       </c>
       <c r="M1950">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1950">
         <v>0</v>
@@ -88363,7 +88363,7 @@
         <v>0</v>
       </c>
       <c r="M1952">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1952">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/43280650410/2023-08-25_relatorio_repasses_43280650410.xlsx
+++ b/relatorios/repasses_liberados/dentistas/43280650410/2023-08-25_relatorio_repasses_43280650410.xlsx
@@ -18667,10 +18667,10 @@
         <v>0</v>
       </c>
       <c r="M368">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N368">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="369" spans="1:14">
@@ -18755,10 +18755,10 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N370">
-        <v>6.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -18799,10 +18799,10 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N371">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -18975,10 +18975,10 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N375">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:14">
@@ -19327,10 +19327,10 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N383">
-        <v>5.184</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="384" spans="1:14">
@@ -20031,10 +20031,10 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N399">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -20295,10 +20295,10 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N405">
-        <v>5.943</v>
+        <v>7.923999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -20427,10 +20427,10 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N408">
-        <v>7.226999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:14">
@@ -20559,10 +20559,10 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N411">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="412" spans="1:14">
@@ -20603,10 +20603,10 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N412">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -20647,10 +20647,10 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N413">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="414" spans="1:14">
@@ -21219,10 +21219,10 @@
         <v>0</v>
       </c>
       <c r="M426">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N426">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="427" spans="1:14">
@@ -22407,10 +22407,10 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N453">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:14">
@@ -22451,10 +22451,10 @@
         <v>0</v>
       </c>
       <c r="M454">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N454">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="455" spans="1:14">
@@ -22495,10 +22495,10 @@
         <v>0</v>
       </c>
       <c r="M455">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N455">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="456" spans="1:14">
@@ -23199,10 +23199,10 @@
         <v>0</v>
       </c>
       <c r="M471">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N471">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:14">
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="M479">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N479">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="480" spans="1:14">
@@ -23595,10 +23595,10 @@
         <v>0</v>
       </c>
       <c r="M480">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N480">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="481" spans="1:14">
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N481">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="482" spans="1:14">
@@ -24387,10 +24387,10 @@
         <v>0</v>
       </c>
       <c r="M498">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N498">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="499" spans="1:14">
@@ -24519,10 +24519,10 @@
         <v>0</v>
       </c>
       <c r="M501">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N501">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="502" spans="1:14">
@@ -24827,10 +24827,10 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N508">
-        <v>12.732</v>
+        <v>16.976</v>
       </c>
     </row>
     <row r="509" spans="1:14">
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N515">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:14">
@@ -25179,10 +25179,10 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N516">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="517" spans="1:14">
@@ -25223,10 +25223,10 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N517">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="518" spans="1:14">
@@ -25355,10 +25355,10 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N520">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:14">
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="M529">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N529">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="530" spans="1:14">
@@ -25795,10 +25795,10 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N530">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:14">
@@ -25883,10 +25883,10 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N532">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="533" spans="1:14">
@@ -26103,10 +26103,10 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N537">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:14">
@@ -26323,10 +26323,10 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:14">
@@ -26367,10 +26367,10 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N543">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="544" spans="1:14">
@@ -26411,10 +26411,10 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N544">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:14">
@@ -26587,10 +26587,10 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N548">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="549" spans="1:14">
@@ -26675,10 +26675,10 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N550">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="551" spans="1:14">
@@ -26895,10 +26895,10 @@
         <v>0</v>
       </c>
       <c r="M555">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N555">
-        <v>9.726000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:14">
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N557">
-        <v>6.405</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="558" spans="1:14">
@@ -27115,10 +27115,10 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N560">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="561" spans="1:14">
@@ -27335,10 +27335,10 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N565">
-        <v>12.723</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="566" spans="1:14">
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N566">
-        <v>12.723</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="567" spans="1:14">
@@ -27555,10 +27555,10 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N570">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:14">
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N571">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:14">
@@ -27687,10 +27687,10 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N573">
-        <v>5.943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:14">
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N578">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:14">
@@ -27951,10 +27951,10 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N579">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="580" spans="1:14">
@@ -28127,10 +28127,10 @@
         <v>0</v>
       </c>
       <c r="M583">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N583">
-        <v>12.723</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="584" spans="1:14">
@@ -28171,10 +28171,10 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N584">
-        <v>12.723</v>
+        <v>16.964</v>
       </c>
     </row>
     <row r="585" spans="1:14">
@@ -28259,10 +28259,10 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N586">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:14">
@@ -29271,10 +29271,10 @@
         <v>0</v>
       </c>
       <c r="M609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N609">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:14">
@@ -29315,10 +29315,10 @@
         <v>0</v>
       </c>
       <c r="M610">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N610">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:14">
@@ -29359,10 +29359,10 @@
         <v>0</v>
       </c>
       <c r="M611">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N611">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="612" spans="1:14">
@@ -29579,10 +29579,10 @@
         <v>0</v>
       </c>
       <c r="M616">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N616">
-        <v>7.226999999999999</v>
+        <v>9.636000000000001</v>
       </c>
     </row>
     <row r="617" spans="1:14">
@@ -29623,10 +29623,10 @@
         <v>0</v>
       </c>
       <c r="M617">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N617">
-        <v>7.226999999999999</v>
+        <v>9.636000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:14">
@@ -30371,10 +30371,10 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N634">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="635" spans="1:14">
@@ -30459,10 +30459,10 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N636">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="637" spans="1:14">
@@ -31339,10 +31339,10 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N656">
-        <v>10.476</v>
+        <v>13.968</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -32351,10 +32351,10 @@
         <v>0</v>
       </c>
       <c r="M679">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N679">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:14">
@@ -32395,10 +32395,10 @@
         <v>0</v>
       </c>
       <c r="M680">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N680">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:14">
@@ -32483,10 +32483,10 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N682">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="683" spans="1:14">
@@ -32571,10 +32571,10 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N684">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="685" spans="1:14">
@@ -32615,10 +32615,10 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N685">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:14">
@@ -32659,10 +32659,10 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N686">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:14">
@@ -32703,10 +32703,10 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N687">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="688" spans="1:14">
@@ -32747,10 +32747,10 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N688">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="689" spans="1:14">
@@ -32879,10 +32879,10 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N691">
-        <v>10.476</v>
+        <v>13.968</v>
       </c>
     </row>
     <row r="692" spans="1:14">
@@ -33055,10 +33055,10 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N695">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:14">
@@ -33099,10 +33099,10 @@
         <v>0</v>
       </c>
       <c r="M696">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N696">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="697" spans="1:14">
@@ -33275,10 +33275,10 @@
         <v>0</v>
       </c>
       <c r="M700">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N700">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="701" spans="1:14">
@@ -33539,10 +33539,10 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N706">
-        <v>5.943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:14">
@@ -33583,10 +33583,10 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N707">
-        <v>7.226999999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="708" spans="1:14">
@@ -34067,10 +34067,10 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N718">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="719" spans="1:14">
@@ -34111,10 +34111,10 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N719">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:14">
@@ -34727,10 +34727,10 @@
         <v>0</v>
       </c>
       <c r="M733">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N733">
-        <v>7.919999999999999</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="734" spans="1:14">
@@ -34859,10 +34859,10 @@
         <v>0</v>
       </c>
       <c r="M736">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N736">
-        <v>7.919999999999999</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="737" spans="1:14">
@@ -34903,10 +34903,10 @@
         <v>0</v>
       </c>
       <c r="M737">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N737">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="738" spans="1:14">
@@ -35079,10 +35079,10 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N741">
-        <v>5.943</v>
+        <v>9.904999999999999</v>
       </c>
     </row>
     <row r="742" spans="1:14">
@@ -35123,10 +35123,10 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N742">
-        <v>7.226999999999999</v>
+        <v>12.045</v>
       </c>
     </row>
     <row r="743" spans="1:14">
@@ -37191,10 +37191,10 @@
         <v>0</v>
       </c>
       <c r="M789">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N789">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:14">
@@ -37235,10 +37235,10 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N790">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:14">
@@ -37279,10 +37279,10 @@
         <v>0</v>
       </c>
       <c r="M791">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N791">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="792" spans="1:14">
@@ -37675,10 +37675,10 @@
         <v>0</v>
       </c>
       <c r="M800">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N800">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="801" spans="1:14">
@@ -37719,10 +37719,10 @@
         <v>0</v>
       </c>
       <c r="M801">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N801">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="802" spans="1:14">
@@ -38159,10 +38159,10 @@
         <v>0</v>
       </c>
       <c r="M811">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N811">
-        <v>16.32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="812" spans="1:14">
@@ -39083,10 +39083,10 @@
         <v>0</v>
       </c>
       <c r="M832">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N832">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:14">
@@ -39127,10 +39127,10 @@
         <v>0</v>
       </c>
       <c r="M833">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N833">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="834" spans="1:14">
@@ -39171,10 +39171,10 @@
         <v>0</v>
       </c>
       <c r="M834">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N834">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:14">
@@ -39215,10 +39215,10 @@
         <v>0</v>
       </c>
       <c r="M835">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N835">
-        <v>2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:14">
@@ -39787,10 +39787,10 @@
         <v>0</v>
       </c>
       <c r="M848">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N848">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="849" spans="1:14">
@@ -39875,10 +39875,10 @@
         <v>0</v>
       </c>
       <c r="M850">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N850">
-        <v>6.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="851" spans="1:14">
@@ -39963,10 +39963,10 @@
         <v>0</v>
       </c>
       <c r="M852">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N852">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:14">
@@ -40095,10 +40095,10 @@
         <v>0</v>
       </c>
       <c r="M855">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N855">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="856" spans="1:14">
@@ -40139,10 +40139,10 @@
         <v>0</v>
       </c>
       <c r="M856">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N856">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="857" spans="1:14">
@@ -40183,10 +40183,10 @@
         <v>0</v>
       </c>
       <c r="M857">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N857">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="858" spans="1:14">
@@ -40271,10 +40271,10 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N859">
-        <v>6.405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:14">
@@ -40447,10 +40447,10 @@
         <v>0</v>
       </c>
       <c r="M863">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N863">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="864" spans="1:14">
@@ -40491,10 +40491,10 @@
         <v>0</v>
       </c>
       <c r="M864">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N864">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:14">
@@ -40535,10 +40535,10 @@
         <v>0</v>
       </c>
       <c r="M865">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N865">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="866" spans="1:14">
@@ -41195,10 +41195,10 @@
         <v>0</v>
       </c>
       <c r="M880">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N880">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:14">
@@ -41811,10 +41811,10 @@
         <v>0</v>
       </c>
       <c r="M894">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N894">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="1:14">
@@ -41855,10 +41855,10 @@
         <v>0</v>
       </c>
       <c r="M895">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N895">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="896" spans="1:14">
@@ -41899,10 +41899,10 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N896">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="897" spans="1:14">
@@ -42339,10 +42339,10 @@
         <v>0</v>
       </c>
       <c r="M906">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N906">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="907" spans="1:14">
@@ -42427,10 +42427,10 @@
         <v>0</v>
       </c>
       <c r="M908">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N908">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="909" spans="1:14">
@@ -42603,10 +42603,10 @@
         <v>0</v>
       </c>
       <c r="M912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N912">
-        <v>3.24</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="913" spans="1:14">
@@ -42647,10 +42647,10 @@
         <v>0</v>
       </c>
       <c r="M913">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N913">
-        <v>3.24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="914" spans="1:14">
@@ -42779,10 +42779,10 @@
         <v>0</v>
       </c>
       <c r="M916">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N916">
-        <v>3.06</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="917" spans="1:14">
@@ -42823,10 +42823,10 @@
         <v>0</v>
       </c>
       <c r="M917">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N917">
-        <v>5.49</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="918" spans="1:14">
@@ -42867,10 +42867,10 @@
         <v>0</v>
       </c>
       <c r="M918">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N918">
-        <v>7.919999999999999</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="919" spans="1:14">
@@ -42911,10 +42911,10 @@
         <v>0</v>
       </c>
       <c r="M919">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N919">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="920" spans="1:14">
@@ -42955,10 +42955,10 @@
         <v>0</v>
       </c>
       <c r="M920">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N920">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="921" spans="1:14">
@@ -42999,10 +42999,10 @@
         <v>0</v>
       </c>
       <c r="M921">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N921">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="922" spans="1:14">
@@ -43043,10 +43043,10 @@
         <v>0</v>
       </c>
       <c r="M922">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N922">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="923" spans="1:14">
@@ -43351,10 +43351,10 @@
         <v>0</v>
       </c>
       <c r="M929">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N929">
-        <v>17.742</v>
+        <v>23.656</v>
       </c>
     </row>
     <row r="930" spans="1:14">
@@ -43395,10 +43395,10 @@
         <v>0</v>
       </c>
       <c r="M930">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N930">
-        <v>5.184</v>
+        <v>2</v>
       </c>
     </row>
     <row r="931" spans="1:14">
@@ -43483,7 +43483,7 @@
         <v>0</v>
       </c>
       <c r="M932">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N932">
         <v>0</v>
@@ -43571,7 +43571,7 @@
         <v>0</v>
       </c>
       <c r="M934">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N934">
         <v>0</v>
@@ -43659,7 +43659,7 @@
         <v>0</v>
       </c>
       <c r="M936">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N936">
         <v>0</v>
@@ -43747,7 +43747,7 @@
         <v>0</v>
       </c>
       <c r="M938">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N938">
         <v>0</v>
@@ -43879,7 +43879,7 @@
         <v>0</v>
       </c>
       <c r="M941">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N941">
         <v>0</v>
@@ -44583,7 +44583,7 @@
         <v>0</v>
       </c>
       <c r="M957">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N957">
         <v>0</v>
@@ -44847,7 +44847,7 @@
         <v>0</v>
       </c>
       <c r="M963">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N963">
         <v>0</v>
@@ -44891,10 +44891,10 @@
         <v>1</v>
       </c>
       <c r="M964">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N964">
-        <v>22.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="965" spans="1:14">
@@ -44935,7 +44935,7 @@
         <v>0</v>
       </c>
       <c r="M965">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N965">
         <v>0</v>
@@ -45155,7 +45155,7 @@
         <v>0</v>
       </c>
       <c r="M970">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N970">
         <v>0</v>
@@ -45331,7 +45331,7 @@
         <v>0</v>
       </c>
       <c r="M974">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N974">
         <v>0</v>
@@ -45375,7 +45375,7 @@
         <v>0</v>
       </c>
       <c r="M975">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N975">
         <v>0</v>
@@ -45419,7 +45419,7 @@
         <v>0</v>
       </c>
       <c r="M976">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N976">
         <v>0</v>
@@ -45463,7 +45463,7 @@
         <v>0</v>
       </c>
       <c r="M977">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N977">
         <v>0</v>
@@ -45507,7 +45507,7 @@
         <v>0</v>
       </c>
       <c r="M978">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N978">
         <v>0</v>
@@ -45551,7 +45551,7 @@
         <v>0</v>
       </c>
       <c r="M979">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N979">
         <v>0</v>
@@ -46211,7 +46211,7 @@
         <v>0</v>
       </c>
       <c r="M994">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N994">
         <v>0</v>
@@ -46299,7 +46299,7 @@
         <v>0</v>
       </c>
       <c r="M996">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N996">
         <v>0</v>
@@ -46519,7 +46519,7 @@
         <v>0</v>
       </c>
       <c r="M1001">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1001">
         <v>0</v>
@@ -46563,7 +46563,7 @@
         <v>0</v>
       </c>
       <c r="M1002">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1002">
         <v>0</v>
@@ -46607,7 +46607,7 @@
         <v>0</v>
       </c>
       <c r="M1003">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1003">
         <v>0</v>
@@ -46827,7 +46827,7 @@
         <v>0</v>
       </c>
       <c r="M1008">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1008">
         <v>0</v>
@@ -46871,7 +46871,7 @@
         <v>0</v>
       </c>
       <c r="M1009">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1009">
         <v>0</v>
@@ -46915,7 +46915,7 @@
         <v>0</v>
       </c>
       <c r="M1010">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1010">
         <v>0</v>
@@ -47003,7 +47003,7 @@
         <v>0</v>
       </c>
       <c r="M1012">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1012">
         <v>0</v>
@@ -47223,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="M1017">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N1017">
         <v>0</v>
@@ -47619,7 +47619,7 @@
         <v>0</v>
       </c>
       <c r="M1026">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1026">
         <v>0</v>
@@ -47839,7 +47839,7 @@
         <v>0</v>
       </c>
       <c r="M1031">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1031">
         <v>0</v>
@@ -47883,7 +47883,7 @@
         <v>0</v>
       </c>
       <c r="M1032">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1032">
         <v>0</v>
@@ -47927,7 +47927,7 @@
         <v>0</v>
       </c>
       <c r="M1033">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1033">
         <v>0</v>
@@ -48235,7 +48235,7 @@
         <v>0</v>
       </c>
       <c r="M1040">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1040">
         <v>0</v>
@@ -48367,7 +48367,7 @@
         <v>0</v>
       </c>
       <c r="M1043">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1043">
         <v>0</v>
@@ -48411,7 +48411,7 @@
         <v>0</v>
       </c>
       <c r="M1044">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1044">
         <v>0</v>
@@ -48455,7 +48455,7 @@
         <v>0</v>
       </c>
       <c r="M1045">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1045">
         <v>0</v>
@@ -48763,7 +48763,7 @@
         <v>0</v>
       </c>
       <c r="M1052">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1052">
         <v>0</v>
@@ -48807,7 +48807,7 @@
         <v>0</v>
       </c>
       <c r="M1053">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1053">
         <v>0</v>
@@ -48851,7 +48851,7 @@
         <v>0</v>
       </c>
       <c r="M1054">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1054">
         <v>0</v>
@@ -49291,7 +49291,7 @@
         <v>0</v>
       </c>
       <c r="M1064">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1064">
         <v>0</v>
@@ -49335,7 +49335,7 @@
         <v>0</v>
       </c>
       <c r="M1065">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1065">
         <v>0</v>
@@ -49379,7 +49379,7 @@
         <v>0</v>
       </c>
       <c r="M1066">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1066">
         <v>0</v>
@@ -49423,7 +49423,7 @@
         <v>0</v>
       </c>
       <c r="M1067">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1067">
         <v>0</v>
@@ -49511,7 +49511,7 @@
         <v>0</v>
       </c>
       <c r="M1069">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1069">
         <v>0</v>
@@ -49731,7 +49731,7 @@
         <v>0</v>
       </c>
       <c r="M1074">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1074">
         <v>0</v>
@@ -49775,7 +49775,7 @@
         <v>0</v>
       </c>
       <c r="M1075">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1075">
         <v>0</v>
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="M1077">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1077">
         <v>0</v>
@@ -49907,7 +49907,7 @@
         <v>0</v>
       </c>
       <c r="M1078">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1078">
         <v>0</v>
@@ -49951,7 +49951,7 @@
         <v>0</v>
       </c>
       <c r="M1079">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1079">
         <v>0</v>
@@ -49995,7 +49995,7 @@
         <v>0</v>
       </c>
       <c r="M1080">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1080">
         <v>0</v>
@@ -50039,7 +50039,7 @@
         <v>0</v>
       </c>
       <c r="M1081">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1081">
         <v>0</v>
@@ -50083,7 +50083,7 @@
         <v>0</v>
       </c>
       <c r="M1082">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1082">
         <v>0</v>
@@ -50127,7 +50127,7 @@
         <v>0</v>
       </c>
       <c r="M1083">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1083">
         <v>0</v>
@@ -50215,7 +50215,7 @@
         <v>0</v>
       </c>
       <c r="M1085">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1085">
         <v>0</v>
@@ -50611,7 +50611,7 @@
         <v>0</v>
       </c>
       <c r="M1094">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1094">
         <v>0</v>
@@ -50655,7 +50655,7 @@
         <v>0</v>
       </c>
       <c r="M1095">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1095">
         <v>0</v>
@@ -51095,7 +51095,7 @@
         <v>0</v>
       </c>
       <c r="M1105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1105">
         <v>0</v>
@@ -52019,7 +52019,7 @@
         <v>0</v>
       </c>
       <c r="M1126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1126">
         <v>0</v>
@@ -52063,7 +52063,7 @@
         <v>0</v>
       </c>
       <c r="M1127">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1127">
         <v>0</v>
@@ -52107,7 +52107,7 @@
         <v>0</v>
       </c>
       <c r="M1128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1128">
         <v>0</v>
@@ -52151,7 +52151,7 @@
         <v>0</v>
       </c>
       <c r="M1129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1129">
         <v>0</v>
@@ -52371,7 +52371,7 @@
         <v>0</v>
       </c>
       <c r="M1134">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1134">
         <v>0</v>
@@ -52415,7 +52415,7 @@
         <v>0</v>
       </c>
       <c r="M1135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1135">
         <v>0</v>
@@ -52459,7 +52459,7 @@
         <v>0</v>
       </c>
       <c r="M1136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1136">
         <v>0</v>
@@ -52503,7 +52503,7 @@
         <v>0</v>
       </c>
       <c r="M1137">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1137">
         <v>0</v>
@@ -52811,7 +52811,7 @@
         <v>0</v>
       </c>
       <c r="M1144">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1144">
         <v>0</v>
@@ -52855,7 +52855,7 @@
         <v>0</v>
       </c>
       <c r="M1145">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1145">
         <v>0</v>
@@ -52943,7 +52943,7 @@
         <v>0</v>
       </c>
       <c r="M1147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1147">
         <v>0</v>
@@ -52987,7 +52987,7 @@
         <v>0</v>
       </c>
       <c r="M1148">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1148">
         <v>0</v>
@@ -53119,7 +53119,7 @@
         <v>0</v>
       </c>
       <c r="M1151">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1151">
         <v>0</v>
@@ -53251,7 +53251,7 @@
         <v>0</v>
       </c>
       <c r="M1154">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1154">
         <v>0</v>
@@ -53515,7 +53515,7 @@
         <v>0</v>
       </c>
       <c r="M1160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1160">
         <v>0</v>
@@ -53603,7 +53603,7 @@
         <v>0</v>
       </c>
       <c r="M1162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1162">
         <v>0</v>
@@ -53735,7 +53735,7 @@
         <v>0</v>
       </c>
       <c r="M1165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1165">
         <v>0</v>
@@ -53779,7 +53779,7 @@
         <v>0</v>
       </c>
       <c r="M1166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1166">
         <v>0</v>
@@ -54351,7 +54351,7 @@
         <v>0</v>
       </c>
       <c r="M1179">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1179">
         <v>0</v>
@@ -54439,7 +54439,7 @@
         <v>0</v>
       </c>
       <c r="M1181">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1181">
         <v>0</v>
@@ -54483,7 +54483,7 @@
         <v>0</v>
       </c>
       <c r="M1182">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1182">
         <v>0</v>
@@ -54527,7 +54527,7 @@
         <v>0</v>
       </c>
       <c r="M1183">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1183">
         <v>0</v>
@@ -54571,7 +54571,7 @@
         <v>0</v>
       </c>
       <c r="M1184">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1184">
         <v>0</v>
@@ -54615,7 +54615,7 @@
         <v>0</v>
       </c>
       <c r="M1185">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1185">
         <v>0</v>
@@ -54659,7 +54659,7 @@
         <v>0</v>
       </c>
       <c r="M1186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1186">
         <v>0</v>
@@ -54747,7 +54747,7 @@
         <v>0</v>
       </c>
       <c r="M1188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1188">
         <v>0</v>
@@ -54791,7 +54791,7 @@
         <v>0</v>
       </c>
       <c r="M1189">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1189">
         <v>0</v>
@@ -54835,7 +54835,7 @@
         <v>0</v>
       </c>
       <c r="M1190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1190">
         <v>0</v>
@@ -54879,7 +54879,7 @@
         <v>0</v>
       </c>
       <c r="M1191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1191">
         <v>0</v>
@@ -54923,7 +54923,7 @@
         <v>0</v>
       </c>
       <c r="M1192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1192">
         <v>0</v>
@@ -54967,7 +54967,7 @@
         <v>0</v>
       </c>
       <c r="M1193">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1193">
         <v>0</v>
@@ -55011,7 +55011,7 @@
         <v>0</v>
       </c>
       <c r="M1194">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1194">
         <v>0</v>
@@ -55055,7 +55055,7 @@
         <v>0</v>
       </c>
       <c r="M1195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1195">
         <v>0</v>
@@ -55143,7 +55143,7 @@
         <v>0</v>
       </c>
       <c r="M1197">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1197">
         <v>0</v>
@@ -55187,7 +55187,7 @@
         <v>0</v>
       </c>
       <c r="M1198">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1198">
         <v>0</v>
@@ -55231,7 +55231,7 @@
         <v>0</v>
       </c>
       <c r="M1199">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1199">
         <v>0</v>
@@ -55319,7 +55319,7 @@
         <v>0</v>
       </c>
       <c r="M1201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N1201">
         <v>0</v>
@@ -55363,7 +55363,7 @@
         <v>0</v>
       </c>
       <c r="M1202">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1202">
         <v>0</v>
@@ -55407,7 +55407,7 @@
         <v>0</v>
       </c>
       <c r="M1203">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1203">
         <v>0</v>
@@ -55451,7 +55451,7 @@
         <v>0</v>
       </c>
       <c r="M1204">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1204">
         <v>0</v>
@@ -55671,7 +55671,7 @@
         <v>0</v>
       </c>
       <c r="M1209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1209">
         <v>0</v>
@@ -55715,7 +55715,7 @@
         <v>0</v>
       </c>
       <c r="M1210">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1210">
         <v>0</v>
@@ -55759,7 +55759,7 @@
         <v>0</v>
       </c>
       <c r="M1211">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1211">
         <v>0</v>
@@ -55803,7 +55803,7 @@
         <v>0</v>
       </c>
       <c r="M1212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1212">
         <v>0</v>
@@ -55847,7 +55847,7 @@
         <v>0</v>
       </c>
       <c r="M1213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1213">
         <v>0</v>
@@ -56023,7 +56023,7 @@
         <v>0</v>
       </c>
       <c r="M1217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1217">
         <v>0</v>
@@ -56067,7 +56067,7 @@
         <v>0</v>
       </c>
       <c r="M1218">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1218">
         <v>0</v>
@@ -56111,7 +56111,7 @@
         <v>0</v>
       </c>
       <c r="M1219">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1219">
         <v>0</v>
@@ -56155,7 +56155,7 @@
         <v>0</v>
       </c>
       <c r="M1220">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1220">
         <v>0</v>
@@ -56243,7 +56243,7 @@
         <v>0</v>
       </c>
       <c r="M1222">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1222">
         <v>0</v>
@@ -56287,7 +56287,7 @@
         <v>0</v>
       </c>
       <c r="M1223">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1223">
         <v>0</v>
@@ -56331,7 +56331,7 @@
         <v>0</v>
       </c>
       <c r="M1224">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1224">
         <v>0</v>
@@ -56639,10 +56639,10 @@
         <v>0.252525</v>
       </c>
       <c r="M1231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1231">
-        <v>5.0505</v>
+        <v>3.787875</v>
       </c>
     </row>
     <row r="1232" spans="1:14">
@@ -56683,10 +56683,10 @@
         <v>0.747475</v>
       </c>
       <c r="M1232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1232">
-        <v>44.25052</v>
+        <v>33.18789</v>
       </c>
     </row>
     <row r="1233" spans="1:14">
@@ -56727,10 +56727,10 @@
         <v>0.08680599999999999</v>
       </c>
       <c r="M1233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1233">
-        <v>1.30209</v>
+        <v>1.73612</v>
       </c>
     </row>
     <row r="1234" spans="1:14">
@@ -56815,10 +56815,10 @@
         <v>0.277778</v>
       </c>
       <c r="M1235">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1235">
-        <v>0</v>
+        <v>13.333344</v>
       </c>
     </row>
     <row r="1236" spans="1:14">
@@ -56859,10 +56859,10 @@
         <v>0.277778</v>
       </c>
       <c r="M1236">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1236">
-        <v>65</v>
+        <v>13.333344</v>
       </c>
     </row>
     <row r="1237" spans="1:14">
@@ -56947,7 +56947,7 @@
         <v>0</v>
       </c>
       <c r="M1238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1238">
         <v>0</v>
@@ -57255,7 +57255,7 @@
         <v>0</v>
       </c>
       <c r="M1245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1245">
         <v>0</v>
@@ -57299,7 +57299,7 @@
         <v>0</v>
       </c>
       <c r="M1246">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1246">
         <v>0</v>
@@ -57343,7 +57343,7 @@
         <v>0</v>
       </c>
       <c r="M1247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1247">
         <v>0</v>
@@ -57387,7 +57387,7 @@
         <v>0</v>
       </c>
       <c r="M1248">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1248">
         <v>0</v>
@@ -57431,7 +57431,7 @@
         <v>0</v>
       </c>
       <c r="M1249">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1249">
         <v>0</v>
@@ -57475,7 +57475,7 @@
         <v>0</v>
       </c>
       <c r="M1250">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1250">
         <v>0</v>
@@ -57519,7 +57519,7 @@
         <v>0</v>
       </c>
       <c r="M1251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1251">
         <v>0</v>
@@ -57915,7 +57915,7 @@
         <v>0</v>
       </c>
       <c r="M1260">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1260">
         <v>0</v>
@@ -58135,7 +58135,7 @@
         <v>0</v>
       </c>
       <c r="M1265">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1265">
         <v>0</v>
@@ -58443,7 +58443,7 @@
         <v>0</v>
       </c>
       <c r="M1272">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1272">
         <v>0</v>
@@ -58575,7 +58575,7 @@
         <v>0</v>
       </c>
       <c r="M1275">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1275">
         <v>0</v>
@@ -58663,7 +58663,7 @@
         <v>0</v>
       </c>
       <c r="M1277">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N1277">
         <v>0</v>
@@ -58707,7 +58707,7 @@
         <v>0</v>
       </c>
       <c r="M1278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1278">
         <v>0</v>
@@ -59191,7 +59191,7 @@
         <v>0</v>
       </c>
       <c r="M1289">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1289">
         <v>0</v>
@@ -59279,7 +59279,7 @@
         <v>0</v>
       </c>
       <c r="M1291">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1291">
         <v>0</v>
@@ -59323,7 +59323,7 @@
         <v>0</v>
       </c>
       <c r="M1292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1292">
         <v>0</v>
@@ -59367,7 +59367,7 @@
         <v>0</v>
       </c>
       <c r="M1293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1293">
         <v>0</v>
@@ -59411,7 +59411,7 @@
         <v>0</v>
       </c>
       <c r="M1294">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1294">
         <v>0</v>
@@ -59675,7 +59675,7 @@
         <v>0</v>
       </c>
       <c r="M1300">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1300">
         <v>0</v>
@@ -59719,7 +59719,7 @@
         <v>0</v>
       </c>
       <c r="M1301">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1301">
         <v>0</v>
@@ -59763,7 +59763,7 @@
         <v>0</v>
       </c>
       <c r="M1302">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1302">
         <v>0</v>
@@ -59807,7 +59807,7 @@
         <v>0</v>
       </c>
       <c r="M1303">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1303">
         <v>0</v>
@@ -59851,7 +59851,7 @@
         <v>0</v>
       </c>
       <c r="M1304">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1304">
         <v>0</v>
@@ -59939,7 +59939,7 @@
         <v>0</v>
       </c>
       <c r="M1306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1306">
         <v>0</v>
@@ -59983,7 +59983,7 @@
         <v>0</v>
       </c>
       <c r="M1307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1307">
         <v>0</v>
@@ -60115,7 +60115,7 @@
         <v>0</v>
       </c>
       <c r="M1310">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1310">
         <v>0</v>
@@ -60159,7 +60159,7 @@
         <v>0</v>
       </c>
       <c r="M1311">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N1311">
         <v>0</v>
@@ -60423,7 +60423,7 @@
         <v>0</v>
       </c>
       <c r="M1317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1317">
         <v>0</v>
@@ -60467,7 +60467,7 @@
         <v>0</v>
       </c>
       <c r="M1318">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1318">
         <v>0</v>
@@ -60511,7 +60511,7 @@
         <v>0</v>
       </c>
       <c r="M1319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1319">
         <v>0</v>
@@ -60995,7 +60995,7 @@
         <v>0</v>
       </c>
       <c r="M1330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1330">
         <v>0</v>
@@ -61039,7 +61039,7 @@
         <v>0</v>
       </c>
       <c r="M1331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1331">
         <v>0</v>
@@ -61127,7 +61127,7 @@
         <v>0</v>
       </c>
       <c r="M1333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1333">
         <v>0</v>
@@ -61171,7 +61171,7 @@
         <v>0</v>
       </c>
       <c r="M1334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1334">
         <v>0</v>
@@ -61391,7 +61391,7 @@
         <v>0</v>
       </c>
       <c r="M1339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1339">
         <v>0</v>
@@ -61435,7 +61435,7 @@
         <v>0</v>
       </c>
       <c r="M1340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1340">
         <v>0</v>
@@ -61611,7 +61611,7 @@
         <v>0</v>
       </c>
       <c r="M1344">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1344">
         <v>0</v>
@@ -61655,7 +61655,7 @@
         <v>0</v>
       </c>
       <c r="M1345">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1345">
         <v>0</v>
@@ -61699,7 +61699,7 @@
         <v>0</v>
       </c>
       <c r="M1346">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1346">
         <v>0</v>
@@ -61743,7 +61743,7 @@
         <v>0</v>
       </c>
       <c r="M1347">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1347">
         <v>0</v>
@@ -61831,7 +61831,7 @@
         <v>0</v>
       </c>
       <c r="M1349">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1349">
         <v>0</v>
@@ -62183,7 +62183,7 @@
         <v>0</v>
       </c>
       <c r="M1357">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1357">
         <v>0</v>
@@ -62227,7 +62227,7 @@
         <v>0</v>
       </c>
       <c r="M1358">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1358">
         <v>0</v>
@@ -62271,7 +62271,7 @@
         <v>0</v>
       </c>
       <c r="M1359">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1359">
         <v>0</v>
@@ -62359,7 +62359,7 @@
         <v>0</v>
       </c>
       <c r="M1361">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1361">
         <v>0</v>
@@ -62403,7 +62403,7 @@
         <v>0</v>
       </c>
       <c r="M1362">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1362">
         <v>0</v>
@@ -62447,7 +62447,7 @@
         <v>0</v>
       </c>
       <c r="M1363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1363">
         <v>0</v>
@@ -62491,7 +62491,7 @@
         <v>0</v>
       </c>
       <c r="M1364">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1364">
         <v>0</v>
@@ -62535,7 +62535,7 @@
         <v>0</v>
       </c>
       <c r="M1365">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1365">
         <v>0</v>
@@ -62579,7 +62579,7 @@
         <v>0</v>
       </c>
       <c r="M1366">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1366">
         <v>0</v>
@@ -62623,7 +62623,7 @@
         <v>0</v>
       </c>
       <c r="M1367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1367">
         <v>0</v>
@@ -62843,7 +62843,7 @@
         <v>0</v>
       </c>
       <c r="M1372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1372">
         <v>0</v>
@@ -63327,7 +63327,7 @@
         <v>0</v>
       </c>
       <c r="M1383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1383">
         <v>0</v>
@@ -63371,7 +63371,7 @@
         <v>0</v>
       </c>
       <c r="M1384">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1384">
         <v>0</v>
@@ -63415,7 +63415,7 @@
         <v>0</v>
       </c>
       <c r="M1385">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1385">
         <v>0</v>
@@ -63459,7 +63459,7 @@
         <v>0</v>
       </c>
       <c r="M1386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1386">
         <v>0</v>
@@ -63503,7 +63503,7 @@
         <v>0</v>
       </c>
       <c r="M1387">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1387">
         <v>0</v>
@@ -63723,7 +63723,7 @@
         <v>0</v>
       </c>
       <c r="M1392">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1392">
         <v>0</v>
@@ -63855,7 +63855,7 @@
         <v>0</v>
       </c>
       <c r="M1395">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1395">
         <v>0</v>
@@ -63943,7 +63943,7 @@
         <v>0</v>
       </c>
       <c r="M1397">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1397">
         <v>0</v>
@@ -63987,7 +63987,7 @@
         <v>0</v>
       </c>
       <c r="M1398">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1398">
         <v>0</v>
@@ -64075,7 +64075,7 @@
         <v>0</v>
       </c>
       <c r="M1400">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1400">
         <v>0</v>
@@ -64251,7 +64251,7 @@
         <v>0</v>
       </c>
       <c r="M1404">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N1404">
         <v>0</v>
@@ -64559,7 +64559,7 @@
         <v>0</v>
       </c>
       <c r="M1411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1411">
         <v>0</v>
@@ -64691,7 +64691,7 @@
         <v>0</v>
       </c>
       <c r="M1414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1414">
         <v>0</v>
@@ -64867,7 +64867,7 @@
         <v>0</v>
       </c>
       <c r="M1418">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1418">
         <v>0</v>
@@ -65087,7 +65087,7 @@
         <v>0</v>
       </c>
       <c r="M1423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1423">
         <v>0</v>
@@ -65175,7 +65175,7 @@
         <v>0</v>
       </c>
       <c r="M1425">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1425">
         <v>0</v>
@@ -65351,7 +65351,7 @@
         <v>0</v>
       </c>
       <c r="M1429">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1429">
         <v>0</v>
@@ -65571,7 +65571,7 @@
         <v>0</v>
       </c>
       <c r="M1434">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1434">
         <v>0</v>
@@ -65791,7 +65791,7 @@
         <v>0</v>
       </c>
       <c r="M1439">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1439">
         <v>0</v>
@@ -65879,7 +65879,7 @@
         <v>0</v>
       </c>
       <c r="M1441">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1441">
         <v>0</v>
@@ -65923,7 +65923,7 @@
         <v>0</v>
       </c>
       <c r="M1442">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1442">
         <v>0</v>
@@ -66803,7 +66803,7 @@
         <v>0</v>
       </c>
       <c r="M1462">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1462">
         <v>0</v>
@@ -66847,7 +66847,7 @@
         <v>0</v>
       </c>
       <c r="M1463">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N1463">
         <v>0</v>
@@ -67023,7 +67023,7 @@
         <v>0</v>
       </c>
       <c r="M1467">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1467">
         <v>0</v>
@@ -67111,7 +67111,7 @@
         <v>0</v>
       </c>
       <c r="M1469">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1469">
         <v>0</v>
@@ -67243,7 +67243,7 @@
         <v>0</v>
       </c>
       <c r="M1472">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1472">
         <v>0</v>
@@ -67463,7 +67463,7 @@
         <v>0</v>
       </c>
       <c r="M1477">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1477">
         <v>0</v>
@@ -67507,7 +67507,7 @@
         <v>0</v>
       </c>
       <c r="M1478">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1478">
         <v>0</v>
@@ -67551,7 +67551,7 @@
         <v>0</v>
       </c>
       <c r="M1479">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1479">
         <v>0</v>
@@ -67595,7 +67595,7 @@
         <v>0</v>
       </c>
       <c r="M1480">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1480">
         <v>0</v>
@@ -68475,7 +68475,7 @@
         <v>0</v>
       </c>
       <c r="M1500">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1500">
         <v>0</v>
@@ -68607,7 +68607,7 @@
         <v>0</v>
       </c>
       <c r="M1503">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1503">
         <v>0</v>
@@ -68651,7 +68651,7 @@
         <v>0</v>
       </c>
       <c r="M1504">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1504">
         <v>0</v>
@@ -68827,10 +68827,10 @@
         <v>1</v>
       </c>
       <c r="M1508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1508">
-        <v>41.4</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="1509" spans="1:14">
@@ -68871,7 +68871,7 @@
         <v>0</v>
       </c>
       <c r="M1509">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1509">
         <v>0</v>
@@ -68915,7 +68915,7 @@
         <v>0</v>
       </c>
       <c r="M1510">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1510">
         <v>0</v>
@@ -68959,7 +68959,7 @@
         <v>0</v>
       </c>
       <c r="M1511">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1511">
         <v>0</v>
@@ -69267,7 +69267,7 @@
         <v>0</v>
       </c>
       <c r="M1518">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1518">
         <v>0</v>
@@ -69399,7 +69399,7 @@
         <v>0</v>
       </c>
       <c r="M1521">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1521">
         <v>0</v>
@@ -69839,7 +69839,7 @@
         <v>0</v>
       </c>
       <c r="M1531">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1531">
         <v>0</v>
@@ -70015,7 +70015,7 @@
         <v>0</v>
       </c>
       <c r="M1535">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1535">
         <v>0</v>
@@ -70059,7 +70059,7 @@
         <v>0</v>
       </c>
       <c r="M1536">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1536">
         <v>0</v>
@@ -70279,7 +70279,7 @@
         <v>0</v>
       </c>
       <c r="M1541">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1541">
         <v>0</v>
@@ -70455,7 +70455,7 @@
         <v>0</v>
       </c>
       <c r="M1545">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N1545">
         <v>0</v>
@@ -70499,7 +70499,7 @@
         <v>0</v>
       </c>
       <c r="M1546">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1546">
         <v>0</v>
@@ -70939,7 +70939,7 @@
         <v>0</v>
       </c>
       <c r="M1556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1556">
         <v>0</v>
@@ -70983,7 +70983,7 @@
         <v>0</v>
       </c>
       <c r="M1557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1557">
         <v>0</v>
@@ -71159,7 +71159,7 @@
         <v>0</v>
       </c>
       <c r="M1561">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1561">
         <v>0</v>
@@ -71203,7 +71203,7 @@
         <v>0</v>
       </c>
       <c r="M1562">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1562">
         <v>0</v>
@@ -71291,7 +71291,7 @@
         <v>0</v>
       </c>
       <c r="M1564">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N1564">
         <v>0</v>
@@ -71555,7 +71555,7 @@
         <v>0</v>
       </c>
       <c r="M1570">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1570">
         <v>0</v>
@@ -71599,7 +71599,7 @@
         <v>0</v>
       </c>
       <c r="M1571">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1571">
         <v>0</v>
@@ -71863,7 +71863,7 @@
         <v>0</v>
       </c>
       <c r="M1577">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1577">
         <v>0</v>
@@ -71907,7 +71907,7 @@
         <v>0</v>
       </c>
       <c r="M1578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1578">
         <v>0</v>
@@ -72039,7 +72039,7 @@
         <v>0</v>
       </c>
       <c r="M1581">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1581">
         <v>0</v>
@@ -72171,7 +72171,7 @@
         <v>0</v>
       </c>
       <c r="M1584">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1584">
         <v>0</v>
@@ -72479,7 +72479,7 @@
         <v>0</v>
       </c>
       <c r="M1591">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1591">
         <v>0</v>
@@ -72831,7 +72831,7 @@
         <v>0</v>
       </c>
       <c r="M1599">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1599">
         <v>0</v>
@@ -72875,7 +72875,7 @@
         <v>0</v>
       </c>
       <c r="M1600">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1600">
         <v>0</v>
@@ -73095,7 +73095,7 @@
         <v>0</v>
       </c>
       <c r="M1605">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1605">
         <v>0</v>
@@ -73359,7 +73359,7 @@
         <v>0</v>
       </c>
       <c r="M1611">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1611">
         <v>0</v>
@@ -73843,7 +73843,7 @@
         <v>0</v>
       </c>
       <c r="M1622">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1622">
         <v>0</v>
@@ -74371,7 +74371,7 @@
         <v>0</v>
       </c>
       <c r="M1634">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1634">
         <v>0</v>
@@ -74415,7 +74415,7 @@
         <v>0</v>
       </c>
       <c r="M1635">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1635">
         <v>0</v>
@@ -74459,7 +74459,7 @@
         <v>0</v>
       </c>
       <c r="M1636">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1636">
         <v>0</v>
@@ -74811,7 +74811,7 @@
         <v>0</v>
       </c>
       <c r="M1644">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1644">
         <v>0</v>
@@ -75251,7 +75251,7 @@
         <v>0</v>
       </c>
       <c r="M1654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1654">
         <v>0</v>
@@ -75295,7 +75295,7 @@
         <v>0</v>
       </c>
       <c r="M1655">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N1655">
         <v>0</v>
@@ -75383,7 +75383,7 @@
         <v>0</v>
       </c>
       <c r="M1657">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1657">
         <v>0</v>
@@ -75515,7 +75515,7 @@
         <v>0</v>
       </c>
       <c r="M1660">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1660">
         <v>0</v>
@@ -75691,7 +75691,7 @@
         <v>0</v>
       </c>
       <c r="M1664">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1664">
         <v>0</v>
@@ -75735,7 +75735,7 @@
         <v>0</v>
       </c>
       <c r="M1665">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1665">
         <v>0</v>
@@ -75911,7 +75911,7 @@
         <v>0</v>
       </c>
       <c r="M1669">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1669">
         <v>0</v>
@@ -75999,7 +75999,7 @@
         <v>0</v>
       </c>
       <c r="M1671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1671">
         <v>0</v>
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="M1672">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1672">
         <v>0</v>
@@ -76087,7 +76087,7 @@
         <v>0</v>
       </c>
       <c r="M1673">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N1673">
         <v>0</v>
@@ -76131,7 +76131,7 @@
         <v>0</v>
       </c>
       <c r="M1674">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1674">
         <v>0</v>
@@ -76175,7 +76175,7 @@
         <v>0</v>
       </c>
       <c r="M1675">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1675">
         <v>0</v>
@@ -76219,7 +76219,7 @@
         <v>0</v>
       </c>
       <c r="M1676">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1676">
         <v>0</v>
@@ -76263,7 +76263,7 @@
         <v>0</v>
       </c>
       <c r="M1677">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1677">
         <v>0</v>
@@ -76439,7 +76439,7 @@
         <v>0</v>
       </c>
       <c r="M1681">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1681">
         <v>0</v>
@@ -76483,7 +76483,7 @@
         <v>0</v>
       </c>
       <c r="M1682">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N1682">
         <v>0</v>
@@ -76527,7 +76527,7 @@
         <v>0</v>
       </c>
       <c r="M1683">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1683">
         <v>0</v>
@@ -76571,7 +76571,7 @@
         <v>0</v>
       </c>
       <c r="M1684">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1684">
         <v>0</v>
@@ -76615,7 +76615,7 @@
         <v>0</v>
       </c>
       <c r="M1685">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1685">
         <v>0</v>
@@ -76659,7 +76659,7 @@
         <v>0</v>
       </c>
       <c r="M1686">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1686">
         <v>0</v>
@@ -76703,7 +76703,7 @@
         <v>0</v>
       </c>
       <c r="M1687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1687">
         <v>0</v>
@@ -76747,7 +76747,7 @@
         <v>0</v>
       </c>
       <c r="M1688">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1688">
         <v>0</v>
@@ -76923,7 +76923,7 @@
         <v>0</v>
       </c>
       <c r="M1692">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="N1692">
         <v>0</v>
@@ -77011,7 +77011,7 @@
         <v>0</v>
       </c>
       <c r="M1694">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N1694">
         <v>0</v>
@@ -77231,7 +77231,7 @@
         <v>0</v>
       </c>
       <c r="M1699">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1699">
         <v>0</v>
@@ -77275,7 +77275,7 @@
         <v>0</v>
       </c>
       <c r="M1700">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1700">
         <v>0</v>
@@ -77495,7 +77495,7 @@
         <v>0</v>
       </c>
       <c r="M1705">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1705">
         <v>0</v>
@@ -77935,7 +77935,7 @@
         <v>0</v>
       </c>
       <c r="M1715">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1715">
         <v>0</v>
@@ -78023,7 +78023,7 @@
         <v>0</v>
       </c>
       <c r="M1717">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1717">
         <v>0</v>
@@ -78287,7 +78287,7 @@
         <v>0</v>
       </c>
       <c r="M1723">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1723">
         <v>0</v>
@@ -78507,7 +78507,7 @@
         <v>0</v>
       </c>
       <c r="M1728">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1728">
         <v>0</v>
@@ -78551,7 +78551,7 @@
         <v>0</v>
       </c>
       <c r="M1729">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1729">
         <v>0</v>
@@ -78595,7 +78595,7 @@
         <v>0</v>
       </c>
       <c r="M1730">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N1730">
         <v>0</v>
@@ -78903,7 +78903,7 @@
         <v>0</v>
       </c>
       <c r="M1737">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1737">
         <v>0</v>
@@ -79211,7 +79211,7 @@
         <v>0</v>
       </c>
       <c r="M1744">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1744">
         <v>0</v>
@@ -79255,7 +79255,7 @@
         <v>0</v>
       </c>
       <c r="M1745">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1745">
         <v>0</v>
@@ -79299,7 +79299,7 @@
         <v>0</v>
       </c>
       <c r="M1746">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1746">
         <v>0</v>
@@ -79343,7 +79343,7 @@
         <v>0</v>
       </c>
       <c r="M1747">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1747">
         <v>0</v>
@@ -79475,7 +79475,7 @@
         <v>0</v>
       </c>
       <c r="M1750">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1750">
         <v>0</v>
@@ -79519,7 +79519,7 @@
         <v>0</v>
       </c>
       <c r="M1751">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1751">
         <v>0</v>
@@ -79651,7 +79651,7 @@
         <v>0</v>
       </c>
       <c r="M1754">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1754">
         <v>0</v>
@@ -79695,7 +79695,7 @@
         <v>0</v>
       </c>
       <c r="M1755">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1755">
         <v>0</v>
@@ -80311,7 +80311,7 @@
         <v>0</v>
       </c>
       <c r="M1769">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1769">
         <v>0</v>
@@ -80355,7 +80355,7 @@
         <v>0</v>
       </c>
       <c r="M1770">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1770">
         <v>0</v>
@@ -80531,7 +80531,7 @@
         <v>0</v>
       </c>
       <c r="M1774">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1774">
         <v>0</v>
@@ -80795,7 +80795,7 @@
         <v>0</v>
       </c>
       <c r="M1780">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1780">
         <v>0</v>
@@ -80839,7 +80839,7 @@
         <v>0</v>
       </c>
       <c r="M1781">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1781">
         <v>0</v>
@@ -80883,7 +80883,7 @@
         <v>0</v>
       </c>
       <c r="M1782">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1782">
         <v>0</v>
@@ -81103,7 +81103,7 @@
         <v>0</v>
       </c>
       <c r="M1787">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1787">
         <v>0</v>
@@ -81147,7 +81147,7 @@
         <v>0</v>
       </c>
       <c r="M1788">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1788">
         <v>0</v>
@@ -81191,7 +81191,7 @@
         <v>0</v>
       </c>
       <c r="M1789">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1789">
         <v>0</v>
@@ -81235,7 +81235,7 @@
         <v>0</v>
       </c>
       <c r="M1790">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1790">
         <v>0</v>
@@ -81411,7 +81411,7 @@
         <v>0</v>
       </c>
       <c r="M1794">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1794">
         <v>0</v>
@@ -81455,7 +81455,7 @@
         <v>0</v>
       </c>
       <c r="M1795">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1795">
         <v>0</v>
@@ -81851,7 +81851,7 @@
         <v>0</v>
       </c>
       <c r="M1804">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1804">
         <v>0</v>
@@ -81895,7 +81895,7 @@
         <v>0</v>
       </c>
       <c r="M1805">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1805">
         <v>0</v>
@@ -81939,7 +81939,7 @@
         <v>0</v>
       </c>
       <c r="M1806">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1806">
         <v>0</v>
@@ -82159,7 +82159,7 @@
         <v>0</v>
       </c>
       <c r="M1811">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1811">
         <v>0</v>
@@ -82247,7 +82247,7 @@
         <v>0</v>
       </c>
       <c r="M1813">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1813">
         <v>0</v>
@@ -82291,7 +82291,7 @@
         <v>0</v>
       </c>
       <c r="M1814">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1814">
         <v>0</v>
@@ -82335,7 +82335,7 @@
         <v>0</v>
       </c>
       <c r="M1815">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1815">
         <v>0</v>
@@ -82379,7 +82379,7 @@
         <v>0</v>
       </c>
       <c r="M1816">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1816">
         <v>0</v>
@@ -82467,7 +82467,7 @@
         <v>0</v>
       </c>
       <c r="M1818">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1818">
         <v>0</v>
@@ -82599,7 +82599,7 @@
         <v>0</v>
       </c>
       <c r="M1821">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1821">
         <v>0</v>
@@ -83127,7 +83127,7 @@
         <v>0</v>
       </c>
       <c r="M1833">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1833">
         <v>0</v>
@@ -83171,7 +83171,7 @@
         <v>0</v>
       </c>
       <c r="M1834">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1834">
         <v>0</v>
@@ -83391,7 +83391,7 @@
         <v>0</v>
       </c>
       <c r="M1839">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1839">
         <v>0</v>
@@ -83435,7 +83435,7 @@
         <v>0</v>
       </c>
       <c r="M1840">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N1840">
         <v>0</v>
@@ -83831,7 +83831,7 @@
         <v>0</v>
       </c>
       <c r="M1849">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1849">
         <v>0</v>
@@ -84139,7 +84139,7 @@
         <v>0</v>
       </c>
       <c r="M1856">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1856">
         <v>0</v>
@@ -84183,7 +84183,7 @@
         <v>0</v>
       </c>
       <c r="M1857">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1857">
         <v>0</v>
@@ -84227,7 +84227,7 @@
         <v>0</v>
       </c>
       <c r="M1858">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1858">
         <v>0</v>
@@ -84491,7 +84491,7 @@
         <v>0</v>
       </c>
       <c r="M1864">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N1864">
         <v>0</v>
@@ -84535,7 +84535,7 @@
         <v>0</v>
       </c>
       <c r="M1865">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1865">
         <v>0</v>
@@ -84579,7 +84579,7 @@
         <v>0</v>
       </c>
       <c r="M1866">
-        <v>0.5</v>
+        <v>65</v>
       </c>
       <c r="N1866">
         <v>0</v>
@@ -84623,7 +84623,7 @@
         <v>0</v>
       </c>
       <c r="M1867">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1867">
         <v>0</v>
@@ -84755,7 +84755,7 @@
         <v>0</v>
       </c>
       <c r="M1870">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1870">
         <v>0</v>
@@ -85107,7 +85107,7 @@
         <v>0</v>
       </c>
       <c r="M1878">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1878">
         <v>0</v>
@@ -85151,7 +85151,7 @@
         <v>0</v>
       </c>
       <c r="M1879">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1879">
         <v>0</v>
@@ -85415,7 +85415,7 @@
         <v>0</v>
       </c>
       <c r="M1885">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1885">
         <v>0</v>
@@ -86075,7 +86075,7 @@
         <v>0</v>
       </c>
       <c r="M1900">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1900">
         <v>0</v>
@@ -86119,7 +86119,7 @@
         <v>0</v>
       </c>
       <c r="M1901">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N1901">
         <v>0</v>
@@ -86163,7 +86163,7 @@
         <v>0</v>
       </c>
       <c r="M1902">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1902">
         <v>0</v>
@@ -86339,7 +86339,7 @@
         <v>0</v>
       </c>
       <c r="M1906">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1906">
         <v>0</v>
@@ -86383,7 +86383,7 @@
         <v>0</v>
       </c>
       <c r="M1907">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N1907">
         <v>0</v>
@@ -86603,7 +86603,7 @@
         <v>0</v>
       </c>
       <c r="M1912">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1912">
         <v>0</v>
@@ -86647,7 +86647,7 @@
         <v>0</v>
       </c>
       <c r="M1913">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N1913">
         <v>0</v>
@@ -87043,10 +87043,10 @@
         <v>0</v>
       </c>
       <c r="M1922">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1922">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="1923" spans="1:14">
@@ -87087,10 +87087,10 @@
         <v>0</v>
       </c>
       <c r="M1923">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1923">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="1924" spans="1:14">
@@ -87131,10 +87131,10 @@
         <v>0</v>
       </c>
       <c r="M1924">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1924">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="1925" spans="1:14">
@@ -87175,10 +87175,10 @@
         <v>0</v>
       </c>
       <c r="M1925">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1925">
-        <v>12.78</v>
+        <v>17.04</v>
       </c>
     </row>
     <row r="1926" spans="1:14">
@@ -87219,7 +87219,7 @@
         <v>0</v>
       </c>
       <c r="M1926">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1926">
         <v>0</v>
@@ -88363,7 +88363,7 @@
         <v>0</v>
       </c>
       <c r="M1952">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N1952">
         <v>0</v>
@@ -88451,7 +88451,7 @@
         <v>0</v>
       </c>
       <c r="M1954">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N1954">
         <v>0</v>
@@ -88627,7 +88627,7 @@
         <v>0</v>
       </c>
       <c r="M1958">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1958">
         <v>0</v>
@@ -88671,7 +88671,7 @@
         <v>0</v>
       </c>
       <c r="M1959">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1959">
         <v>0</v>
@@ -88715,7 +88715,7 @@
         <v>0</v>
       </c>
       <c r="M1960">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N1960">
         <v>0</v>
